--- a/medicine/Enfance/Alice_Cruppi/Alice_Cruppi.xlsx
+++ b/medicine/Enfance/Alice_Cruppi/Alice_Cruppi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alice Cruppi, née Alice Nerik, le 14 février 1887 à Paris et morte le 29 mai 1968 à Boulogne-Billancourt, est une peintre et écrivain française.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alice Nerik naît le 14 février 1887 dans le 14e arrondissement de Paris[1]. 
-Le 7 juillet 1913, elle épouse Marcel Cruppi (1883-1958), docteur en droit et fils de Jean Cruppi et de Louise Cruppi[2],[3].
-Elle expose au Salon des indépendants de 1927 les toiles Paysage (Juzet-de-Luchon) et Déguisement[4], en 1928, Toits et jardins rue de Bellechasse[5] et Nature morte et en 1929 Le Port de Brusc et Le Brusc près de Toulon[6].
-On lui doit en outre des récits pour enfants. Pattes-Blanches, lapin de Gascogne reçoit en 1933 un prix de l'Académie française[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice Nerik naît le 14 février 1887 dans le 14e arrondissement de Paris. 
+Le 7 juillet 1913, elle épouse Marcel Cruppi (1883-1958), docteur en droit et fils de Jean Cruppi et de Louise Cruppi,.
+Elle expose au Salon des indépendants de 1927 les toiles Paysage (Juzet-de-Luchon) et Déguisement, en 1928, Toits et jardins rue de Bellechasse et Nature morte et en 1929 Le Port de Brusc et Le Brusc près de Toulon.
+On lui doit en outre des récits pour enfants. Pattes-Blanches, lapin de Gascogne reçoit en 1933 un prix de l'Académie française.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Touche-à-tout. Ses tragiques mésaventures, illustrations de Germaine Bouret, Nathan, 1928
 Pattes-Blanches, lapin de Gascogne, illustrations de Madeleine Charléty, Armand Colin, 1932
